--- a/ProjectFramework/Assets/Cehua/DataTable/base/UIForm.xlsx
+++ b/ProjectFramework/Assets/Cehua/DataTable/base/UIForm.xlsx
@@ -40,7 +40,7 @@
     <t>是否暂停被其覆盖的界面</t>
   </si>
   <si>
-    <t>是否热更新</t>
+    <t>逻辑所在Dll</t>
   </si>
   <si>
     <t>是否需要高斯模糊背景</t>
@@ -64,7 +64,7 @@
     <t>PauseCoveredUIForm</t>
   </si>
   <si>
-    <t>HotFix</t>
+    <t>DllName</t>
   </si>
   <si>
     <t>NeedBlurBg</t>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1098,7 +1098,7 @@
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
     <col min="8" max="8" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1200,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>

--- a/ProjectFramework/Assets/Cehua/DataTable/base/UIForm.xlsx
+++ b/ProjectFramework/Assets/Cehua/DataTable/base/UIForm.xlsx
@@ -10,14 +10,14 @@
     <sheet name="UIForm" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UIForm!$D$2:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UIForm!$D$2:$D$13</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>c</t>
   </si>
@@ -91,7 +91,10 @@
     <t>UICommonTextTip</t>
   </si>
   <si>
-    <t>TipMsg</t>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>HotFixEntry</t>
   </si>
   <si>
     <t>通用确定取消提示</t>
@@ -100,13 +103,7 @@
     <t>UICommonConfirm</t>
   </si>
   <si>
-    <t>AboveUI</t>
-  </si>
-  <si>
-    <t>通用确定取消提示（带复选框）</t>
-  </si>
-  <si>
-    <t>UICommonConfirmHaveCheckBox</t>
+    <t>Above</t>
   </si>
   <si>
     <t>文本说明UI</t>
@@ -124,18 +121,18 @@
     <t>UICommonLoading</t>
   </si>
   <si>
+    <t>登录UI</t>
+  </si>
+  <si>
+    <t>UILoginMain</t>
+  </si>
+  <si>
     <t>网络等待UI</t>
   </si>
   <si>
     <t>UINetWaitMsg</t>
   </si>
   <si>
-    <t>登录UI</t>
-  </si>
-  <si>
-    <t>UILoginMain</t>
-  </si>
-  <si>
     <t>网络等待连接UI</t>
   </si>
   <si>
@@ -146,6 +143,15 @@
   </si>
   <si>
     <t>UISetting</t>
+  </si>
+  <si>
+    <t>主界面UI</t>
+  </si>
+  <si>
+    <t>UIMain</t>
+  </si>
+  <si>
+    <t>HotFixLogic</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1094,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1230,8 +1236,8 @@
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
+      <c r="G6" t="s">
+        <v>25</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -1242,22 +1248,22 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -1268,25 +1274,25 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
+      <c r="G8" t="s">
+        <v>25</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1294,22 +1300,22 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
+      <c r="G9" t="s">
+        <v>25</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1320,13 +1326,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1334,8 +1340,8 @@
       <c r="F10" t="b">
         <v>0</v>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
+      <c r="G10" t="s">
+        <v>25</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1346,10 +1352,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1360,25 +1366,25 @@
       <c r="F11" t="b">
         <v>0</v>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
+      <c r="G11" t="s">
+        <v>25</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" ht="12" customHeight="1" spans="1:8">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1386,8 +1392,8 @@
       <c r="F12" t="b">
         <v>0</v>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
+      <c r="G12" t="s">
+        <v>25</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -1398,13 +1404,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1412,11 +1418,11 @@
       <c r="F13" t="b">
         <v>0</v>
       </c>
-      <c r="G13" t="b">
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1424,13 +1430,13 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1438,15 +1444,15 @@
       <c r="F14" t="b">
         <v>0</v>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
+      <c r="G14" t="s">
+        <v>44</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D2:D14">
+  <autoFilter ref="D2:D13">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
